--- a/Info/ResultadoAsignaciones.xlsx
+++ b/Info/ResultadoAsignaciones.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="45">
   <si>
     <t>Nombre</t>
   </si>
@@ -47,121 +47,118 @@
     <t>WOG9</t>
   </si>
   <si>
+    <t>WOG1</t>
+  </si>
+  <si>
+    <t>WOG13</t>
+  </si>
+  <si>
+    <t>WOG17</t>
+  </si>
+  <si>
+    <t>WOG5</t>
+  </si>
+  <si>
+    <t>90112637-M-ALA</t>
+  </si>
+  <si>
+    <t>90002374-M-ALA</t>
+  </si>
+  <si>
+    <t>3108CM-M-ALA</t>
+  </si>
+  <si>
+    <t>5103CM-M-ALA</t>
+  </si>
+  <si>
+    <t>1131CM-M-ALA</t>
+  </si>
+  <si>
+    <t>90074195-M-ALA-AF</t>
+  </si>
+  <si>
+    <t>90002374-M-ALA-AFD</t>
+  </si>
+  <si>
+    <t>90072422-M-ALA-AFD</t>
+  </si>
+  <si>
+    <t>90049637-M-ALA</t>
+  </si>
+  <si>
+    <t>90046740-M-AFD</t>
+  </si>
+  <si>
+    <t>90072416-M-ALA-AFD</t>
+  </si>
+  <si>
+    <t>90027297-M-ALA</t>
+  </si>
+  <si>
+    <t>Técnico 2</t>
+  </si>
+  <si>
+    <t>WOG10</t>
+  </si>
+  <si>
     <t>WOG2</t>
   </si>
   <si>
+    <t>WOG14</t>
+  </si>
+  <si>
+    <t>WOG18</t>
+  </si>
+  <si>
+    <t>WOG6</t>
+  </si>
+  <si>
+    <t>900808-M-ALA</t>
+  </si>
+  <si>
+    <t>2563CM-3M-ALA</t>
+  </si>
+  <si>
+    <t>Técnico 3</t>
+  </si>
+  <si>
+    <t>WOG11</t>
+  </si>
+  <si>
+    <t>WOG3</t>
+  </si>
+  <si>
     <t>WOG15</t>
   </si>
   <si>
+    <t>WOG19</t>
+  </si>
+  <si>
+    <t>WOG7</t>
+  </si>
+  <si>
+    <t>90046740-M-ALA</t>
+  </si>
+  <si>
+    <t>Técnico 4</t>
+  </si>
+  <si>
+    <t>WOG12</t>
+  </si>
+  <si>
+    <t>WOG4</t>
+  </si>
+  <si>
+    <t>WOG16</t>
+  </si>
+  <si>
     <t>WOG20</t>
   </si>
   <si>
-    <t>90112637-M-ALA</t>
-  </si>
-  <si>
-    <t>90002374-M-ALA</t>
+    <t>WOG8</t>
   </si>
   <si>
     <t>3234CM-ALA</t>
-  </si>
-  <si>
-    <t>5103CM-M-ALA</t>
-  </si>
-  <si>
-    <t>1131CM-M-ALA</t>
-  </si>
-  <si>
-    <t>90074195-M-ALA-AF</t>
-  </si>
-  <si>
-    <t>90002374-M-ALA-AFD</t>
-  </si>
-  <si>
-    <t>90049637-M-ALA</t>
-  </si>
-  <si>
-    <t>90046740-M-AFD</t>
-  </si>
-  <si>
-    <t>90072416-M-ALA-AFD</t>
-  </si>
-  <si>
-    <t>90027297-M-ALA</t>
-  </si>
-  <si>
-    <t>Técnico 2</t>
-  </si>
-  <si>
-    <t>WOG10</t>
-  </si>
-  <si>
-    <t>WOG3</t>
-  </si>
-  <si>
-    <t>WOG16</t>
-  </si>
-  <si>
-    <t>WOG5</t>
-  </si>
-  <si>
-    <t>900808-M-ALA</t>
-  </si>
-  <si>
-    <t>3108CM-M-ALA</t>
-  </si>
-  <si>
-    <t>Técnico 3</t>
-  </si>
-  <si>
-    <t>WOG11</t>
-  </si>
-  <si>
-    <t>WOG4</t>
-  </si>
-  <si>
-    <t>WOG17</t>
-  </si>
-  <si>
-    <t>WOG6</t>
-  </si>
-  <si>
-    <t>90072422-M-ALA-AFD</t>
-  </si>
-  <si>
-    <t>Técnico 4</t>
-  </si>
-  <si>
-    <t>WOG12</t>
-  </si>
-  <si>
-    <t>WOG13</t>
-  </si>
-  <si>
-    <t>WOG18</t>
-  </si>
-  <si>
-    <t>WOG7</t>
-  </si>
-  <si>
-    <t>90046740-M-ALA</t>
-  </si>
-  <si>
-    <t>Técnico 5</t>
-  </si>
-  <si>
-    <t>WOG1</t>
-  </si>
-  <si>
-    <t>WOG14</t>
-  </si>
-  <si>
-    <t>WOG19</t>
-  </si>
-  <si>
-    <t>WOG8</t>
-  </si>
-  <si>
-    <t>2563CM-3M-ALA</t>
   </si>
 </sst>
 </file>
@@ -560,13 +557,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="C6">
-        <v>777931</v>
-      </c>
       <c r="D6">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -577,7 +574,7 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>75029</v>
+        <v>777931</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -588,10 +585,10 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8">
-        <v>174194</v>
+        <v>75027</v>
       </c>
       <c r="D8">
         <v>5</v>
@@ -605,7 +602,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>672857</v>
+        <v>418707</v>
       </c>
       <c r="D9">
         <v>5</v>
@@ -616,10 +613,10 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10">
-        <v>672626</v>
+        <v>412251</v>
       </c>
       <c r="D10">
         <v>5</v>
@@ -633,7 +630,7 @@
         <v>13</v>
       </c>
       <c r="C11">
-        <v>672036</v>
+        <v>641842</v>
       </c>
       <c r="D11">
         <v>5</v>
@@ -647,7 +644,7 @@
         <v>14</v>
       </c>
       <c r="C12">
-        <v>639770</v>
+        <v>672626</v>
       </c>
       <c r="D12">
         <v>5</v>
@@ -661,7 +658,7 @@
         <v>14</v>
       </c>
       <c r="C13">
-        <v>638762</v>
+        <v>635542</v>
       </c>
       <c r="D13">
         <v>5</v>
@@ -672,10 +669,10 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14">
-        <v>415497</v>
+        <v>672424</v>
       </c>
       <c r="D14">
         <v>5</v>
@@ -686,10 +683,10 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15">
-        <v>542555</v>
+        <v>640377</v>
       </c>
       <c r="D15">
         <v>5</v>
@@ -700,10 +697,10 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C16">
-        <v>585183</v>
+        <v>638852</v>
       </c>
       <c r="D16">
         <v>5</v>
@@ -714,10 +711,10 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17">
-        <v>585219</v>
+        <v>415497</v>
       </c>
       <c r="D17">
         <v>5</v>
@@ -731,7 +728,7 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>585254</v>
+        <v>448817</v>
       </c>
       <c r="D18">
         <v>5</v>
@@ -745,7 +742,7 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>586667</v>
+        <v>592599</v>
       </c>
       <c r="D19">
         <v>5</v>
@@ -759,7 +756,7 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <v>590882</v>
+        <v>585200</v>
       </c>
       <c r="D20">
         <v>5</v>
@@ -770,10 +767,10 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21">
-        <v>593087</v>
+        <v>585225</v>
       </c>
       <c r="D21">
         <v>5</v>
@@ -781,13 +778,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="C22">
+        <v>585254</v>
       </c>
       <c r="D22">
         <v>5</v>
@@ -795,13 +792,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" t="s">
-        <v>23</v>
+        <v>20</v>
+      </c>
+      <c r="C23">
+        <v>586674</v>
       </c>
       <c r="D23">
         <v>5</v>
@@ -809,13 +806,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="C24">
+        <v>586682</v>
       </c>
       <c r="D24">
         <v>5</v>
@@ -823,13 +820,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
         <v>21</v>
       </c>
-      <c r="B25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
+      <c r="C25">
+        <v>594635</v>
       </c>
       <c r="D25">
         <v>5</v>
@@ -837,13 +834,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C26">
-        <v>637186</v>
+        <v>592818</v>
       </c>
       <c r="D26">
         <v>5</v>
@@ -851,13 +848,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27">
-        <v>419920</v>
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>24</v>
       </c>
       <c r="D27">
         <v>5</v>
@@ -865,13 +862,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28">
-        <v>423123</v>
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>25</v>
       </c>
       <c r="D28">
         <v>5</v>
@@ -879,13 +876,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29">
-        <v>641842</v>
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
       </c>
       <c r="D29">
         <v>5</v>
@@ -893,13 +890,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30">
-        <v>672035</v>
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
       </c>
       <c r="D30">
         <v>5</v>
@@ -907,13 +904,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31">
-        <v>672038</v>
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>28</v>
       </c>
       <c r="D31">
         <v>5</v>
@@ -921,13 +918,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C32">
-        <v>639773</v>
+        <v>637186</v>
       </c>
       <c r="D32">
         <v>5</v>
@@ -935,13 +932,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C33">
-        <v>638852</v>
+        <v>75029</v>
       </c>
       <c r="D33">
         <v>5</v>
@@ -949,13 +946,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C34">
-        <v>421963</v>
+        <v>519374</v>
       </c>
       <c r="D34">
         <v>5</v>
@@ -963,13 +960,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C35">
-        <v>542602</v>
+        <v>412250</v>
       </c>
       <c r="D35">
         <v>5</v>
@@ -977,13 +974,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B36" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C36">
-        <v>585188</v>
+        <v>641841</v>
       </c>
       <c r="D36">
         <v>5</v>
@@ -991,13 +988,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B37" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C37">
-        <v>585225</v>
+        <v>672035</v>
       </c>
       <c r="D37">
         <v>5</v>
@@ -1005,13 +1002,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B38" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C38">
-        <v>585258</v>
+        <v>672036</v>
       </c>
       <c r="D38">
         <v>5</v>
@@ -1019,13 +1016,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B39" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C39">
-        <v>586669</v>
+        <v>639769</v>
       </c>
       <c r="D39">
         <v>5</v>
@@ -1033,13 +1030,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B40" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C40">
-        <v>593252</v>
+        <v>639775</v>
       </c>
       <c r="D40">
         <v>5</v>
@@ -1047,13 +1044,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B41" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C41">
-        <v>592818</v>
+        <v>638845</v>
       </c>
       <c r="D41">
         <v>5</v>
@@ -1061,13 +1058,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
-      </c>
-      <c r="C42" t="s">
-        <v>29</v>
+        <v>17</v>
+      </c>
+      <c r="C42">
+        <v>421963</v>
       </c>
       <c r="D42">
         <v>5</v>
@@ -1075,13 +1072,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" t="s">
-        <v>30</v>
+        <v>17</v>
+      </c>
+      <c r="C43">
+        <v>542555</v>
       </c>
       <c r="D43">
         <v>5</v>
@@ -1089,13 +1086,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
-      </c>
-      <c r="C44" t="s">
-        <v>31</v>
+        <v>19</v>
+      </c>
+      <c r="C44">
+        <v>585127</v>
       </c>
       <c r="D44">
         <v>5</v>
@@ -1103,13 +1100,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
-      </c>
-      <c r="C45" t="s">
-        <v>32</v>
+        <v>19</v>
+      </c>
+      <c r="C45">
+        <v>585204</v>
       </c>
       <c r="D45">
         <v>5</v>
@@ -1117,13 +1114,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B46" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C46">
-        <v>637178</v>
+        <v>585236</v>
       </c>
       <c r="D46">
         <v>5</v>
@@ -1131,13 +1128,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B47" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C47">
-        <v>412663</v>
+        <v>585258</v>
       </c>
       <c r="D47">
         <v>5</v>
@@ -1145,13 +1142,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B48" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C48">
-        <v>412251</v>
+        <v>586667</v>
       </c>
       <c r="D48">
         <v>5</v>
@@ -1159,13 +1156,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B49" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C49">
-        <v>641841</v>
+        <v>671771</v>
       </c>
       <c r="D49">
         <v>5</v>
@@ -1173,13 +1170,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B50" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C50">
-        <v>672627</v>
+        <v>594617</v>
       </c>
       <c r="D50">
         <v>5</v>
@@ -1187,13 +1184,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B51" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C51">
-        <v>672031</v>
+        <v>592861</v>
       </c>
       <c r="D51">
         <v>5</v>
@@ -1201,13 +1198,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B52" t="s">
-        <v>14</v>
-      </c>
-      <c r="C52">
-        <v>640377</v>
+        <v>5</v>
+      </c>
+      <c r="C52" t="s">
+        <v>32</v>
       </c>
       <c r="D52">
         <v>5</v>
@@ -1215,13 +1212,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B53" t="s">
-        <v>14</v>
-      </c>
-      <c r="C53">
-        <v>638845</v>
+        <v>5</v>
+      </c>
+      <c r="C53" t="s">
+        <v>33</v>
       </c>
       <c r="D53">
         <v>5</v>
@@ -1229,13 +1226,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B54" t="s">
-        <v>16</v>
-      </c>
-      <c r="C54">
-        <v>421949</v>
+        <v>5</v>
+      </c>
+      <c r="C54" t="s">
+        <v>34</v>
       </c>
       <c r="D54">
         <v>5</v>
@@ -1243,13 +1240,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B55" t="s">
-        <v>33</v>
-      </c>
-      <c r="C55">
-        <v>592594</v>
+        <v>5</v>
+      </c>
+      <c r="C55" t="s">
+        <v>35</v>
       </c>
       <c r="D55">
         <v>5</v>
@@ -1257,13 +1254,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B56" t="s">
-        <v>17</v>
-      </c>
-      <c r="C56">
-        <v>585200</v>
+        <v>5</v>
+      </c>
+      <c r="C56" t="s">
+        <v>36</v>
       </c>
       <c r="D56">
         <v>5</v>
@@ -1271,13 +1268,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B57" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C57">
-        <v>585236</v>
+        <v>637178</v>
       </c>
       <c r="D57">
         <v>5</v>
@@ -1285,13 +1282,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B58" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C58">
-        <v>585260</v>
+        <v>419920</v>
       </c>
       <c r="D58">
         <v>5</v>
@@ -1299,13 +1296,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B59" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C59">
-        <v>586675</v>
+        <v>174194</v>
       </c>
       <c r="D59">
         <v>5</v>
@@ -1313,13 +1310,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B60" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C60">
-        <v>594635</v>
+        <v>576559</v>
       </c>
       <c r="D60">
         <v>5</v>
@@ -1327,13 +1324,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B61" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C61">
-        <v>592861</v>
+        <v>672625</v>
       </c>
       <c r="D61">
         <v>5</v>
@@ -1341,13 +1338,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B62" t="s">
-        <v>5</v>
-      </c>
-      <c r="C62" t="s">
-        <v>35</v>
+        <v>14</v>
+      </c>
+      <c r="C62">
+        <v>672627</v>
       </c>
       <c r="D62">
         <v>5</v>
@@ -1355,13 +1352,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B63" t="s">
-        <v>5</v>
-      </c>
-      <c r="C63" t="s">
-        <v>36</v>
+        <v>14</v>
+      </c>
+      <c r="C63">
+        <v>672038</v>
       </c>
       <c r="D63">
         <v>5</v>
@@ -1369,13 +1366,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B64" t="s">
-        <v>5</v>
-      </c>
-      <c r="C64" t="s">
-        <v>37</v>
+        <v>15</v>
+      </c>
+      <c r="C64">
+        <v>639770</v>
       </c>
       <c r="D64">
         <v>5</v>
@@ -1383,13 +1380,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B65" t="s">
-        <v>5</v>
-      </c>
-      <c r="C65" t="s">
-        <v>38</v>
+        <v>15</v>
+      </c>
+      <c r="C65">
+        <v>639776</v>
       </c>
       <c r="D65">
         <v>5</v>
@@ -1397,13 +1394,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B66" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C66">
-        <v>75025</v>
+        <v>638836</v>
       </c>
       <c r="D66">
         <v>5</v>
@@ -1411,13 +1408,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B67" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C67">
-        <v>418707</v>
+        <v>421949</v>
       </c>
       <c r="D67">
         <v>5</v>
@@ -1425,13 +1422,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B68" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C68">
-        <v>412250</v>
+        <v>542602</v>
       </c>
       <c r="D68">
         <v>5</v>
@@ -1439,13 +1436,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B69" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C69">
-        <v>672625</v>
+        <v>585183</v>
       </c>
       <c r="D69">
         <v>5</v>
@@ -1453,13 +1450,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B70" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C70">
-        <v>672450</v>
+        <v>585211</v>
       </c>
       <c r="D70">
         <v>5</v>
@@ -1467,13 +1464,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B71" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C71">
-        <v>672424</v>
+        <v>585245</v>
       </c>
       <c r="D71">
         <v>5</v>
@@ -1481,13 +1478,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B72" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C72">
-        <v>639775</v>
+        <v>585260</v>
       </c>
       <c r="D72">
         <v>5</v>
@@ -1495,13 +1492,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B73" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C73">
-        <v>638836</v>
+        <v>586669</v>
       </c>
       <c r="D73">
         <v>5</v>
@@ -1509,13 +1506,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B74" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C74">
-        <v>448802</v>
+        <v>590882</v>
       </c>
       <c r="D74">
         <v>5</v>
@@ -1523,13 +1520,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B75" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C75">
-        <v>592599</v>
+        <v>592891</v>
       </c>
       <c r="D75">
         <v>5</v>
@@ -1537,13 +1534,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B76" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C76">
-        <v>585204</v>
+        <v>591641</v>
       </c>
       <c r="D76">
         <v>5</v>
@@ -1551,13 +1548,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B77" t="s">
-        <v>17</v>
-      </c>
-      <c r="C77">
-        <v>585245</v>
+        <v>5</v>
+      </c>
+      <c r="C77" t="s">
+        <v>39</v>
       </c>
       <c r="D77">
         <v>5</v>
@@ -1565,13 +1562,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B78" t="s">
-        <v>17</v>
-      </c>
-      <c r="C78">
-        <v>585267</v>
+        <v>5</v>
+      </c>
+      <c r="C78" t="s">
+        <v>40</v>
       </c>
       <c r="D78">
         <v>5</v>
@@ -1579,13 +1576,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B79" t="s">
-        <v>18</v>
-      </c>
-      <c r="C79">
-        <v>586682</v>
+        <v>5</v>
+      </c>
+      <c r="C79" t="s">
+        <v>41</v>
       </c>
       <c r="D79">
         <v>5</v>
@@ -1593,13 +1590,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B80" t="s">
-        <v>19</v>
-      </c>
-      <c r="C80">
-        <v>594617</v>
+        <v>5</v>
+      </c>
+      <c r="C80" t="s">
+        <v>42</v>
       </c>
       <c r="D80">
         <v>5</v>
@@ -1607,13 +1604,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B81" t="s">
-        <v>39</v>
-      </c>
-      <c r="C81">
-        <v>591641</v>
+        <v>5</v>
+      </c>
+      <c r="C81" t="s">
+        <v>43</v>
       </c>
       <c r="D81">
         <v>5</v>
@@ -1621,13 +1618,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B82" t="s">
-        <v>5</v>
-      </c>
-      <c r="C82" t="s">
-        <v>41</v>
+        <v>12</v>
+      </c>
+      <c r="C82">
+        <v>75025</v>
       </c>
       <c r="D82">
         <v>5</v>
@@ -1635,13 +1632,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B83" t="s">
-        <v>5</v>
-      </c>
-      <c r="C83" t="s">
-        <v>42</v>
+        <v>12</v>
+      </c>
+      <c r="C83">
+        <v>412663</v>
       </c>
       <c r="D83">
         <v>5</v>
@@ -1649,13 +1646,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B84" t="s">
-        <v>5</v>
-      </c>
-      <c r="C84" t="s">
-        <v>43</v>
+        <v>12</v>
+      </c>
+      <c r="C84">
+        <v>423123</v>
       </c>
       <c r="D84">
         <v>5</v>
@@ -1663,13 +1660,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B85" t="s">
-        <v>5</v>
-      </c>
-      <c r="C85" t="s">
         <v>44</v>
+      </c>
+      <c r="C85">
+        <v>672857</v>
       </c>
       <c r="D85">
         <v>5</v>
@@ -1677,13 +1674,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B86" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C86">
-        <v>75027</v>
+        <v>670495</v>
       </c>
       <c r="D86">
         <v>5</v>
@@ -1691,13 +1688,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B87" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C87">
-        <v>519374</v>
+        <v>672450</v>
       </c>
       <c r="D87">
         <v>5</v>
@@ -1705,13 +1702,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B88" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C88">
-        <v>576559</v>
+        <v>672031</v>
       </c>
       <c r="D88">
         <v>5</v>
@@ -1719,13 +1716,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B89" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C89">
-        <v>670495</v>
+        <v>639773</v>
       </c>
       <c r="D89">
         <v>5</v>
@@ -1733,13 +1730,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B90" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C90">
-        <v>635542</v>
+        <v>638762</v>
       </c>
       <c r="D90">
         <v>5</v>
@@ -1747,13 +1744,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B91" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C91">
-        <v>639769</v>
+        <v>638837</v>
       </c>
       <c r="D91">
         <v>5</v>
@@ -1761,13 +1758,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B92" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C92">
-        <v>639776</v>
+        <v>448802</v>
       </c>
       <c r="D92">
         <v>5</v>
@@ -1775,13 +1772,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B93" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C93">
-        <v>638837</v>
+        <v>592594</v>
       </c>
       <c r="D93">
         <v>5</v>
@@ -1789,13 +1786,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B94" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C94">
-        <v>448817</v>
+        <v>585188</v>
       </c>
       <c r="D94">
         <v>5</v>
@@ -1803,13 +1800,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B95" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C95">
-        <v>585127</v>
+        <v>585219</v>
       </c>
       <c r="D95">
         <v>5</v>
@@ -1817,13 +1814,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B96" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C96">
-        <v>585211</v>
+        <v>585250</v>
       </c>
       <c r="D96">
         <v>5</v>
@@ -1831,13 +1828,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B97" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C97">
-        <v>585250</v>
+        <v>585267</v>
       </c>
       <c r="D97">
         <v>5</v>
@@ -1845,13 +1842,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B98" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C98">
-        <v>586674</v>
+        <v>586675</v>
       </c>
       <c r="D98">
         <v>5</v>
@@ -1859,13 +1856,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B99" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C99">
-        <v>671771</v>
+        <v>593252</v>
       </c>
       <c r="D99">
         <v>5</v>
@@ -1873,13 +1870,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B100" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C100">
-        <v>592891</v>
+        <v>593087</v>
       </c>
       <c r="D100">
         <v>5</v>
